--- a/Data/processed/segunda_aplicacion/alfa.xlsx
+++ b/Data/processed/segunda_aplicacion/alfa.xlsx
@@ -149,7 +149,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>0.856352735970707</v>
+        <v>0.85478941779537</v>
       </c>
     </row>
     <row r="4">
@@ -165,7 +165,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.752714018219688</v>
+        <v>0.752394172411532</v>
       </c>
     </row>
     <row r="6">
@@ -173,7 +173,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>0.280995159059016</v>
+        <v>0.291992981699399</v>
       </c>
     </row>
     <row r="7">
@@ -181,7 +181,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0697227813503073</v>
+        <v>0.655163949126761</v>
       </c>
     </row>
     <row r="8">
@@ -205,7 +205,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>0.688296221152773</v>
+        <v>0.686933469941218</v>
       </c>
     </row>
     <row r="11">
@@ -213,7 +213,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>0.594686882316947</v>
+        <v>0.592016108884081</v>
       </c>
     </row>
     <row r="12">
@@ -237,7 +237,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4411732699206</v>
+        <v>0.435315602354632</v>
       </c>
     </row>
     <row r="15">
@@ -245,7 +245,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>0.361105173150919</v>
+        <v>0.350620813546259</v>
       </c>
     </row>
     <row r="16">
@@ -261,7 +261,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>0.940895407009929</v>
+        <v>0.940962413451146</v>
       </c>
     </row>
     <row r="18">
@@ -277,7 +277,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>0.923156377849281</v>
+        <v>0.921727746000131</v>
       </c>
     </row>
     <row r="20">
@@ -293,7 +293,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>0.507495805090888</v>
+        <v>0.503687239427252</v>
       </c>
     </row>
   </sheetData>
